--- a/2.Design/Communication protocol.xlsx
+++ b/2.Design/Communication protocol.xlsx
@@ -4,14 +4,26 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="wifi-&gt;main" sheetId="1" r:id="rId1"/>
-    <sheet name="main-&gt;wifi" sheetId="2" r:id="rId2"/>
+    <sheet name="disp-&gt;main" sheetId="1" r:id="rId1"/>
+    <sheet name="main-&gt;disp" sheetId="2" r:id="rId2"/>
+    <sheet name="disp -&gt; wifi" sheetId="3" r:id="rId3"/>
+    <sheet name="wifi -&gt;disp" sheetId="4" r:id="rId4"/>
+    <sheet name="disp-&gt;lcd" sheetId="5" r:id="rId5"/>
+    <sheet name="lcd-&gt;disp" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>d</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -351,7 +363,7 @@
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -435,8 +447,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
